--- a/uploads/exported_files.xlsx
+++ b/uploads/exported_files.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,42 +472,38 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Data File</t>
+          <t>Establishment file</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>F-2025-001</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>confidential</t>
-        </is>
-      </c>
+          <t>EST</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>(i)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -516,12 +512,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>F-2025-002</t>
+          <t>F-2025-005</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>confidential</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -531,82 +527,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>s2</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>B2</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Data File</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>F-2025-003</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>confidential</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Data File</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>F-2025-005</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>B3</t>
         </is>
       </c>
     </row>
